--- a/ECE210_BeyerBot_2020-2021.xlsx
+++ b/ECE210_BeyerBot_2020-2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usafa0-my.sharepoint.com/personal/steven_beyer_afacademy_af_edu/Documents/Purchases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven.beyer\Documents\DFEC_RoboticsLearningPlatform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_4A96AAE576E339CC5E8444513AAF38945944D137" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1609C198-AEFA-4D1C-822E-E9E7150EF212}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -305,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1283,6 +1282,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1291,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1576,30 +1575,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="7" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
@@ -1647,19 +1646,19 @@
       </c>
       <c r="F2" s="67">
         <f>$G$47*C2</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20">
         <f>F2-G2</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I2" s="22">
         <f>H2*B2</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
         <v>31</v>
       </c>
@@ -1678,19 +1677,19 @@
       </c>
       <c r="F3" s="72">
         <f>$G$47*C3</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" s="73"/>
       <c r="H3" s="73">
         <f>F3-G3</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" s="74">
         <f>H3*B3</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75"/>
       <c r="B4" s="24"/>
       <c r="C4" s="76"/>
@@ -1701,7 +1700,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>71</v>
       </c>
@@ -1720,19 +1719,19 @@
       </c>
       <c r="F5" s="83">
         <f>$G$47*C5</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15">
         <f>F5-G5</f>
-        <v>8.3333333333333321</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="I5" s="17">
         <f>H5*B5</f>
-        <v>74.916666666666657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+        <v>149.83333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>73</v>
       </c>
@@ -1749,21 +1748,18 @@
       <c r="E6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="28">
-        <f>$G$47*C6</f>
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f>F6-G6</f>
-        <v>0.83333333333333337</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <f>H6*B6</f>
-        <v>6.3250000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>22</v>
       </c>
@@ -1781,19 +1777,19 @@
       </c>
       <c r="F7" s="28">
         <f>$G$47*C7</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
         <f>F7-G7</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I7" s="4">
         <f>H7*B7</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>48</v>
       </c>
@@ -1812,19 +1808,19 @@
       </c>
       <c r="F8" s="28">
         <f>$G$47*C8</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
         <f>F8-G8</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I8" s="4">
         <f>H8*B8</f>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="84" t="s">
         <v>24</v>
       </c>
@@ -1841,21 +1837,18 @@
       <c r="E9" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="88">
-        <f>$G$47*C9</f>
-        <v>7.5</v>
-      </c>
+      <c r="F9" s="88"/>
       <c r="G9" s="89"/>
       <c r="H9" s="89">
         <f>F9-G9</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="90">
         <f>H9*B9</f>
-        <v>43.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="75"/>
       <c r="B10" s="24"/>
       <c r="C10" s="76"/>
@@ -1866,7 +1859,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91" t="s">
         <v>63</v>
       </c>
@@ -1896,7 +1889,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75"/>
       <c r="B12" s="24"/>
       <c r="C12" s="76"/>
@@ -1907,7 +1900,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
         <v>10</v>
       </c>
@@ -1924,21 +1917,18 @@
       <c r="E13" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="103">
-        <f>$G$47*C13</f>
-        <v>50</v>
-      </c>
+      <c r="F13" s="103"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18">
-        <f>F13-G13</f>
-        <v>50</v>
+        <f t="shared" ref="H13:H18" si="2">F13-G13</f>
+        <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>H13*B13</f>
-        <v>583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" ref="I13:I18" si="3">H13*B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>60</v>
       </c>
@@ -1957,19 +1947,19 @@
       </c>
       <c r="F14" s="29">
         <f>$G$47*C14</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <f>F14-G14</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="I14" s="7">
-        <f>H14*B14</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>61</v>
       </c>
@@ -1988,19 +1978,19 @@
       </c>
       <c r="F15" s="29">
         <f>$G$47*C15</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <f>F15-G15</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="I15" s="7">
-        <f>H15*B15</f>
-        <v>1489.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>39</v>
       </c>
@@ -2019,19 +2009,19 @@
       </c>
       <c r="F16" s="29">
         <f>$G$47*C16</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6">
-        <f>F16-G16</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>300</v>
       </c>
       <c r="I16" s="7">
-        <f>H16*B16</f>
-        <v>118.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>69</v>
       </c>
@@ -2050,23 +2040,23 @@
       </c>
       <c r="F17" s="29">
         <f>$G$47*C17</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <f>F17-G17</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="I17" s="7">
-        <f>H17*B17</f>
-        <v>397.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="3"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="178">
+      <c r="B18" s="175">
         <v>1.35</v>
       </c>
       <c r="C18" s="106">
@@ -2084,15 +2074,15 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8">
-        <f>F18-G18</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I18" s="9">
-        <f>H18*B18</f>
+        <f t="shared" si="3"/>
         <v>40.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="75"/>
       <c r="B19" s="24"/>
       <c r="C19" s="76"/>
@@ -2103,7 +2093,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="109" t="s">
         <v>27</v>
       </c>
@@ -2122,19 +2112,19 @@
       </c>
       <c r="F20" s="113">
         <f>$G$47*C20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" s="114"/>
       <c r="H20" s="114">
         <f>F20-G20</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I20" s="115">
         <f>H20*B20</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>30</v>
       </c>
@@ -2153,19 +2143,19 @@
       </c>
       <c r="F21" s="36">
         <f>$G$47*C21</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37">
         <f>F21-G21</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="52">
         <f>H21*B21</f>
-        <v>5.8999999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+        <v>11.799999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>62</v>
       </c>
@@ -2195,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>46</v>
       </c>
@@ -2214,21 +2204,21 @@
       </c>
       <c r="F23" s="36">
         <f>$G$47*C23</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G23" s="37">
         <v>0</v>
       </c>
       <c r="H23" s="37">
         <f>F23-G23</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I23" s="52">
         <f>H23*B23</f>
-        <v>113.99999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+        <v>227.99999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="116" t="s">
         <v>47</v>
       </c>
@@ -2247,21 +2237,21 @@
       </c>
       <c r="F24" s="120">
         <f>$G$47*C24</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G24" s="121">
         <v>0</v>
       </c>
       <c r="H24" s="121">
         <f>F24-G24</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I24" s="122">
         <f>H24*B24</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="75"/>
       <c r="B25" s="24"/>
       <c r="C25" s="76"/>
@@ -2272,7 +2262,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
@@ -2291,19 +2281,19 @@
       </c>
       <c r="F26" s="127">
         <f>$G$47*C26</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G26" s="128"/>
       <c r="H26" s="128">
-        <f t="shared" ref="H26:H34" si="2">F26-G26</f>
-        <v>50</v>
+        <f t="shared" ref="H26:H34" si="4">F26-G26</f>
+        <v>100</v>
       </c>
       <c r="I26" s="129">
-        <f t="shared" ref="I26:I34" si="3">H26*B26</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="128.25" x14ac:dyDescent="0.45">
+        <f t="shared" ref="I26:I34" si="5">H26*B26</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>14</v>
       </c>
@@ -2325,15 +2315,15 @@
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I27" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>82</v>
       </c>
@@ -2344,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="43">
-        <f t="shared" ref="D28" si="4">+B28*C28</f>
+        <f t="shared" ref="D28" si="6">+B28*C28</f>
         <v>0.08</v>
       </c>
       <c r="E28" s="45" t="s">
@@ -2355,15 +2345,15 @@
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I28" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>16</v>
       </c>
@@ -2382,19 +2372,19 @@
       </c>
       <c r="F29" s="46">
         <f>$G$47*C29</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G29" s="47"/>
       <c r="H29" s="47">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="I29" s="55">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="43">
-        <f t="shared" ref="D30:D39" si="5">+B30*C30</f>
+        <f t="shared" ref="D30:D39" si="7">+B30*C30</f>
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="E30" s="45" t="s">
@@ -2413,19 +2403,19 @@
       </c>
       <c r="F30" s="46">
         <f>$G$47*C30</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="4"/>
+        <v>500</v>
       </c>
       <c r="I30" s="55">
-        <f t="shared" si="3"/>
-        <v>4.4749999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="E31" s="45" t="s">
@@ -2447,15 +2437,15 @@
       </c>
       <c r="G31" s="47"/>
       <c r="H31" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I31" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>75</v>
       </c>
@@ -2466,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="E32" s="45" t="s">
@@ -2477,15 +2467,15 @@
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I32" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>77</v>
       </c>
@@ -2496,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="43">
-        <f t="shared" ref="D33" si="6">+B33*C33</f>
+        <f t="shared" ref="D33" si="8">+B33*C33</f>
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="E33" s="45" t="s">
@@ -2507,15 +2497,15 @@
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I33" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.79</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="130" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2516,7 @@
         <v>0.02</v>
       </c>
       <c r="D34" s="131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="E34" s="133" t="s">
@@ -2534,19 +2524,19 @@
       </c>
       <c r="F34" s="134">
         <f>$G$47*C34</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="135"/>
       <c r="H34" s="135">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="I34" s="136">
-        <f t="shared" si="3"/>
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="56"/>
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
@@ -2557,7 +2547,7 @@
       <c r="H35" s="57"/>
       <c r="I35" s="58"/>
     </row>
-    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="137" t="s">
         <v>34</v>
       </c>
@@ -2576,19 +2566,19 @@
       </c>
       <c r="F36" s="141">
         <f>$G$47*C36</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G36" s="142"/>
       <c r="H36" s="142">
         <f>F36-G36</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I36" s="143">
         <f>H36*B36</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
         <v>33</v>
       </c>
@@ -2599,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.76</v>
       </c>
       <c r="E37" s="40" t="s">
@@ -2607,19 +2597,19 @@
       </c>
       <c r="F37" s="41">
         <f>$G$47*C37</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="42">
         <f>F37-G37</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I37" s="60">
         <f>H37*B37</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
         <v>32</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.49</v>
       </c>
       <c r="E38" s="40" t="s">
@@ -2638,19 +2628,19 @@
       </c>
       <c r="F38" s="41">
         <f>$G$47*C38</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="42">
         <f>F38-G38</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I38" s="60">
         <f>H38*B38</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
         <v>35</v>
       </c>
@@ -2661,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -2669,19 +2659,19 @@
       </c>
       <c r="F39" s="41">
         <f>$G$47*C39</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="42">
         <f>F39-G39</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I39" s="60">
         <f>H39*B39</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="144" t="s">
         <v>43</v>
       </c>
@@ -2692,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="145">
-        <f t="shared" ref="D40" si="7">+B40*C40</f>
+        <f t="shared" ref="D40" si="9">+B40*C40</f>
         <v>0.67</v>
       </c>
       <c r="E40" s="147" t="s">
@@ -2700,19 +2690,19 @@
       </c>
       <c r="F40" s="148">
         <f>$G$47*C40</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G40" s="149"/>
       <c r="H40" s="148">
         <f>F40-G40</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I40" s="150">
         <f>H40*B40</f>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="75"/>
       <c r="B41" s="24"/>
       <c r="C41" s="76"/>
@@ -2723,7 +2713,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="165" t="s">
         <v>53</v>
       </c>
@@ -2742,21 +2732,21 @@
       </c>
       <c r="F42" s="169">
         <f>$G$47*C42</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G42" s="170">
         <v>0</v>
       </c>
       <c r="H42" s="170">
         <f>F42-G42</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I42" s="171">
         <f>H42*B42</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="151" t="s">
         <v>54</v>
       </c>
@@ -2767,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="152">
-        <f t="shared" ref="D43:D46" si="8">+B43*C43</f>
+        <f t="shared" ref="D43:D46" si="10">+B43*C43</f>
         <v>0.4</v>
       </c>
       <c r="E43" s="154" t="s">
@@ -2775,21 +2765,21 @@
       </c>
       <c r="F43" s="155">
         <f>$G$47*C43</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G43" s="156">
         <v>0</v>
       </c>
       <c r="H43" s="156">
         <f>F43-G43</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I43" s="157">
         <f>H43*B43</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="151" t="s">
         <v>55</v>
       </c>
@@ -2800,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
       <c r="E44" s="154" t="s">
@@ -2808,21 +2798,21 @@
       </c>
       <c r="F44" s="155">
         <f>$G$47*C44</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="156">
         <v>0</v>
       </c>
       <c r="H44" s="156">
         <f>F44-G44</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="157">
         <f>H44*B44</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="151" t="s">
         <v>36</v>
       </c>
@@ -2833,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.48</v>
       </c>
       <c r="E45" s="154" t="s">
@@ -2841,21 +2831,21 @@
       </c>
       <c r="F45" s="155">
         <f>$G$47*C45</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G45" s="156">
         <v>0</v>
       </c>
       <c r="H45" s="156">
         <f>F45-G45</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I45" s="157">
         <f>H45*B45</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="158" t="s">
         <v>37</v>
       </c>
@@ -2866,7 +2856,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="E46" s="161" t="s">
@@ -2874,26 +2864,26 @@
       </c>
       <c r="F46" s="162">
         <f>$G$47*C46</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G46" s="163">
         <v>0</v>
       </c>
       <c r="H46" s="163">
         <f>F46-G46</f>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I46" s="164">
         <f>H46*B46</f>
-        <v>28.000000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="175" t="s">
+        <v>56.000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="176"/>
-      <c r="C47" s="177"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="174">
         <f>SUM(D2:D46)</f>
         <v>103.50203333333333</v>
@@ -2902,26 +2892,26 @@
         <v>38</v>
       </c>
       <c r="G47" s="173">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I47" s="12">
         <f>SUM(I2:I46)</f>
-        <v>5252.286666666666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+        <v>9100.3533333333362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
   </sheetData>
@@ -2929,43 +2919,43 @@
     <mergeCell ref="A47:C47"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{CB3E9F03-B194-4CC6-A87D-41D006DCE695}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{CC3C5679-7A27-4992-80C3-30F0B698D3FF}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{C731B3B5-E4B8-49A4-88F7-2BD1B695E079}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{F207FE59-8A72-4235-88CA-E8A201516A7A}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{0F60E633-D004-4B28-B9A1-816618DDE32C}"/>
-    <hyperlink ref="E21" r:id="rId6" xr:uid="{F2A5F8F2-5EA5-4B6E-AC3C-F5183C8EF111}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{224B17B1-625E-409C-A474-A8809AA58536}"/>
-    <hyperlink ref="E26" r:id="rId8" xr:uid="{86966331-B8A0-4396-AB12-E7E8A395F9B5}"/>
-    <hyperlink ref="E27" r:id="rId9" display="https://www.jameco.com/webapp/wcs/stores/servlet/ProductDisplay?catalogId=10001&amp;freeText=94212&amp;langId=-1&amp;storeId=10001&amp;productId=94212&amp;krypto=hbpyjOOG1xaagkI1EBB9A0M53idRZwoWCbFWiVaRcMcw1H2wL6cLaBXp0%2B4DzXXujOCZNRV0rpBVFpwhwHmVHAjJRf9UhMb2OQBwq2Y0GXY%3D&amp;ddkey=https%3AStoreCatalogDrillDownView" xr:uid="{67D9B86B-AB7B-4217-91C2-2460EFE82ACC}"/>
-    <hyperlink ref="E29" r:id="rId10" xr:uid="{D22F489C-C5E8-4EF2-BA1A-E3003470D64F}"/>
-    <hyperlink ref="E30" r:id="rId11" xr:uid="{9081A700-A679-400A-9784-79C5E5683BE0}"/>
-    <hyperlink ref="E31" r:id="rId12" xr:uid="{9C616CEB-E012-43B6-8211-5F9783301758}"/>
-    <hyperlink ref="E32" r:id="rId13" xr:uid="{EC751A75-23DE-4E82-9AE3-D607C4644918}"/>
-    <hyperlink ref="E36" r:id="rId14" xr:uid="{41FF6617-A94D-4720-BBBE-0815B5022597}"/>
-    <hyperlink ref="E37" r:id="rId15" xr:uid="{5D24C061-3CA3-4D6A-AD83-C59033AEE62F}"/>
-    <hyperlink ref="E38" r:id="rId16" xr:uid="{621FCAD8-471C-4135-82DA-2A18BEA3AB97}"/>
-    <hyperlink ref="E39" r:id="rId17" xr:uid="{D1781CA1-8200-4751-BFCC-778353249EDD}"/>
-    <hyperlink ref="E15" r:id="rId18" xr:uid="{D07793B5-4059-4A2E-A26E-4548AD423D90}"/>
-    <hyperlink ref="E16" r:id="rId19" xr:uid="{BCA8E910-8373-4F0B-924C-4B646F75AD7B}"/>
-    <hyperlink ref="E17" r:id="rId20" xr:uid="{9021D69C-DF7E-4352-BC88-592EEF25587A}"/>
-    <hyperlink ref="E40" r:id="rId21" xr:uid="{3DE4B5B1-8AF0-464B-8B6C-A87418454563}"/>
-    <hyperlink ref="E34" r:id="rId22" xr:uid="{8B7A67B5-7BC4-4E58-84D5-08D0B05E0505}"/>
-    <hyperlink ref="E5" r:id="rId23" xr:uid="{BD723480-761D-4126-A34A-BD86981746C6}"/>
-    <hyperlink ref="E6" r:id="rId24" xr:uid="{0DE40239-774F-4B16-9CE2-7FC61E1A2A7D}"/>
-    <hyperlink ref="E9" r:id="rId25" xr:uid="{67281E18-7D7D-465D-B7F1-3EE999B969C7}"/>
-    <hyperlink ref="E20" r:id="rId26" xr:uid="{28E74445-E7AD-4C42-B6B7-9324631A7679}"/>
-    <hyperlink ref="E22" r:id="rId27" xr:uid="{774DD8B9-BF2C-4E0A-9389-29D07DD3A974}"/>
-    <hyperlink ref="E33" r:id="rId28" xr:uid="{6D514942-43A0-4186-8363-143943F600F8}"/>
-    <hyperlink ref="E42" r:id="rId29" xr:uid="{6FD1004D-2EDF-4500-995C-2B19392E5F12}"/>
-    <hyperlink ref="E43" r:id="rId30" xr:uid="{7046C796-C260-458C-A1EF-441B3750C70E}"/>
-    <hyperlink ref="E44" r:id="rId31" xr:uid="{F81FFA93-65F7-4133-9237-19AEF31E004D}"/>
-    <hyperlink ref="E45" r:id="rId32" xr:uid="{C4956A24-89FF-4DE4-B149-E6C37B18143C}"/>
-    <hyperlink ref="E46" r:id="rId33" xr:uid="{88E924C5-C478-4ECE-A596-9B8A9BFF193A}"/>
-    <hyperlink ref="E23" r:id="rId34" xr:uid="{743251BD-A66C-4CBE-BDFF-86161B7F5259}"/>
-    <hyperlink ref="E24" r:id="rId35" xr:uid="{800A46DF-4CD9-4F08-A40B-F7FD73E2D3CA}"/>
-    <hyperlink ref="E28" r:id="rId36" xr:uid="{B7B8F270-BBDF-4720-B76C-0803E2072348}"/>
-    <hyperlink ref="E18" r:id="rId37" xr:uid="{B8E032A8-C754-427C-821E-AAD12D9BAD54}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E21" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E26" r:id="rId8"/>
+    <hyperlink ref="E27" r:id="rId9" display="https://www.jameco.com/webapp/wcs/stores/servlet/ProductDisplay?catalogId=10001&amp;freeText=94212&amp;langId=-1&amp;storeId=10001&amp;productId=94212&amp;krypto=hbpyjOOG1xaagkI1EBB9A0M53idRZwoWCbFWiVaRcMcw1H2wL6cLaBXp0%2B4DzXXujOCZNRV0rpBVFpwhwHmVHAjJRf9UhMb2OQBwq2Y0GXY%3D&amp;ddkey=https%3AStoreCatalogDrillDownView"/>
+    <hyperlink ref="E29" r:id="rId10"/>
+    <hyperlink ref="E30" r:id="rId11"/>
+    <hyperlink ref="E31" r:id="rId12"/>
+    <hyperlink ref="E32" r:id="rId13"/>
+    <hyperlink ref="E36" r:id="rId14"/>
+    <hyperlink ref="E37" r:id="rId15"/>
+    <hyperlink ref="E38" r:id="rId16"/>
+    <hyperlink ref="E39" r:id="rId17"/>
+    <hyperlink ref="E15" r:id="rId18"/>
+    <hyperlink ref="E16" r:id="rId19"/>
+    <hyperlink ref="E17" r:id="rId20"/>
+    <hyperlink ref="E40" r:id="rId21"/>
+    <hyperlink ref="E34" r:id="rId22"/>
+    <hyperlink ref="E5" r:id="rId23"/>
+    <hyperlink ref="E6" r:id="rId24"/>
+    <hyperlink ref="E9" r:id="rId25"/>
+    <hyperlink ref="E20" r:id="rId26"/>
+    <hyperlink ref="E22" r:id="rId27"/>
+    <hyperlink ref="E33" r:id="rId28"/>
+    <hyperlink ref="E42" r:id="rId29"/>
+    <hyperlink ref="E43" r:id="rId30"/>
+    <hyperlink ref="E44" r:id="rId31"/>
+    <hyperlink ref="E45" r:id="rId32"/>
+    <hyperlink ref="E46" r:id="rId33"/>
+    <hyperlink ref="E23" r:id="rId34"/>
+    <hyperlink ref="E24" r:id="rId35"/>
+    <hyperlink ref="E28" r:id="rId36"/>
+    <hyperlink ref="E18" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId38"/>
